--- a/Dev Note.xlsx
+++ b/Dev Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openit\Desktop\Support for InfamousSabre's Pickups - 0.6.alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openit\Desktop\Support for InfamousSabre's Pickups - 0.7.alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA284855-0FEF-4752-9FD7-E71C2874C75B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC68D9-85F6-419F-8709-2D200B3014FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="DLCs" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="505">
   <si>
     <t>AMMO_PISTOL</t>
   </si>
@@ -688,9 +699,6 @@
     <t>AMMO_BIRD_CRAP</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Pickups 2.2 vanilla</t>
   </si>
   <si>
@@ -1214,9 +1222,6 @@
   </si>
   <si>
     <t>900?</t>
-  </si>
-  <si>
-    <t>Check 0.6</t>
   </si>
   <si>
     <t>AMMO_762MNG
@@ -1496,16 +1501,70 @@
     <t>Remington 700 PCR 1Enhanced</t>
   </si>
   <si>
+    <t>emplauncher
+stungun_mp</t>
+  </si>
+  <si>
+    <t>pickups.meta
+(lots of weapons)</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mpchristmas3</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mpchristmas3_g9ec</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/patchday28ng</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/patchday28g9ecng</t>
+  </si>
+  <si>
+    <t>Los Santos Drug Wars</t>
+  </si>
+  <si>
+    <t>pickups.meta
+heavyrifle
+fertilizercan</t>
+  </si>
+  <si>
+    <t>precisionrifle</t>
+  </si>
+  <si>
+    <t>WM 29 Pistol</t>
+  </si>
+  <si>
+    <t>mpchristmas3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Candy Cane</t>
+  </si>
+  <si>
+    <t>Coil Railgun</t>
+  </si>
+  <si>
+    <t>Acid Package</t>
+  </si>
+  <si>
+    <t>H&amp;K P7M13</t>
+  </si>
+  <si>
+    <t>AMMO_RAILGUNXM3</t>
+  </si>
+  <si>
+    <t>AMMO_ACIDPACKAGE</t>
+  </si>
+  <si>
+    <t>pickups.meta
+metaldetector
+tacticlerifle</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pickups.meta</t>
+      <t xml:space="preserve">pickups.meta
+acidpackage
+</t>
     </r>
     <r>
       <rPr>
@@ -1515,9 +1574,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-metaldetector
-</t>
+      <t>candycane</t>
     </r>
     <r>
       <rPr>
@@ -1528,42 +1585,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>precisionrifle
-tacticlerifle</t>
+      <t xml:space="preserve">
+pistolxm3
+railgunxm3</t>
     </r>
-  </si>
-  <si>
-    <t>emplauncher
-stungun_mp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pickups.meta
-heavyrifle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fertilizercan</t>
-    </r>
-  </si>
-  <si>
-    <t>pickups.meta
-(lots of weapons)</t>
   </si>
 </sst>
 </file>
@@ -1630,19 +1655,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1651,16 +1672,43 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1668,6 +1716,9 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2016,20 +2067,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2055,20 +2092,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2150,50 +2173,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D7AC28-B82E-4235-BF60-33309FF7CD10}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:H78" xr:uid="{F5E06541-6411-41C9-87DA-147E54787D01}"/>
-  <sortState ref="A2:G78">
-    <sortCondition ref="C1:C78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D7AC28-B82E-4235-BF60-33309FF7CD10}" name="Table1" displayName="Table1" ref="A1:H82" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:H82" xr:uid="{F5E06541-6411-41C9-87DA-147E54787D01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
+    <sortCondition ref="C1:C82"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CDCC4CDA-1650-4290-B9E5-854A45FDE967}" name="Archive (excluding dlcpatch)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{6D7F440E-9D9B-4FD4-B229-3ED78D1621A5}" name="DLC Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A1AEDF67-0BD7-4C19-8887-A1C5BF856BF9}" name="Order" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{50A9C864-6602-4AEA-975C-65B3D539138E}" name="Has weapons" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FB5ED569-7644-4ABC-82DA-46F56FA3A5E0}" name="Pickups 2.2" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{520F22FE-CD61-44F5-BEE4-F262BBCCDC5A}" name="Imm. Pickups" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{BC0B9839-6D4B-4BEE-B00C-B4FF40BFF5F9}" name="dlcpacks" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{24A3B97B-FF34-4EF2-9090-F168CAA65069}" name="dlcpatch" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CDCC4CDA-1650-4290-B9E5-854A45FDE967}" name="Archive (excluding dlcpatch)" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{6D7F440E-9D9B-4FD4-B229-3ED78D1621A5}" name="DLC Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A1AEDF67-0BD7-4C19-8887-A1C5BF856BF9}" name="Order" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{50A9C864-6602-4AEA-975C-65B3D539138E}" name="Has weapons" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{FB5ED569-7644-4ABC-82DA-46F56FA3A5E0}" name="Pickups 2.2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{520F22FE-CD61-44F5-BEE4-F262BBCCDC5A}" name="Imm. Pickups" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{BC0B9839-6D4B-4BEE-B00C-B4FF40BFF5F9}" name="dlcpacks" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{24A3B97B-FF34-4EF2-9090-F168CAA65069}" name="dlcpatch" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I106" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:I106" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
-  <sortState ref="A2:I106">
-    <sortCondition descending="1" ref="E1:E106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I110" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:I110" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I110">
+    <sortCondition descending="1" ref="E1:E110"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{64DB3FD4-1DD7-4D21-BE5D-BCBEC25E4D4D}" name="Type" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2E80A398-4EAE-4A94-97DE-C0EAC9713967}" name="Weapons" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B5261582-1F42-4B78-A2BE-7C71A58969D2}" name="Pickups 2.2 vanilla" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{9134273F-06B8-4C72-B309-0447CA726058}" name="Slot" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3F876E3A-3B8D-448F-9E25-D15C9832A1F7}" name="DLC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{87E9DBE6-C973-4877-ACFF-56FB4F52613A}" name="Note" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D0FC13BD-3524-4956-AF56-C3E835554A10}" name="Ammo" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{01CFF989-E487-490B-AFFF-4377370337D8}" name="Real-life counterpart" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{6CA58A19-1633-4246-A29B-0BBB59D65676}" name="Speed" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{64DB3FD4-1DD7-4D21-BE5D-BCBEC25E4D4D}" name="Type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2E80A398-4EAE-4A94-97DE-C0EAC9713967}" name="Weapons" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B5261582-1F42-4B78-A2BE-7C71A58969D2}" name="Pickups 2.2 vanilla" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9134273F-06B8-4C72-B309-0447CA726058}" name="Slot" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{3F876E3A-3B8D-448F-9E25-D15C9832A1F7}" name="DLC" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{87E9DBE6-C973-4877-ACFF-56FB4F52613A}" name="Note" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D0FC13BD-3524-4956-AF56-C3E835554A10}" name="Ammo" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{01CFF989-E487-490B-AFFF-4377370337D8}" name="Real-life counterpart" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6CA58A19-1633-4246-A29B-0BBB59D65676}" name="Speed" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FCE1476B-608C-4F30-BA4D-B7475E2D1D30}" name="Table4" displayName="Table4" ref="A3:G64" totalsRowShown="0">
-  <autoFilter ref="A3:G64" xr:uid="{733E2478-E587-4693-B19F-B6044616A7CA}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FCE1476B-608C-4F30-BA4D-B7475E2D1D30}" name="Table4" displayName="Table4" ref="A3:F66" totalsRowShown="0">
+  <autoFilter ref="A3:F66" xr:uid="{733E2478-E587-4693-B19F-B6044616A7CA}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{655E3EA6-DEB1-46FE-B364-B018FB7F6DBA}" name="Vanilla"/>
     <tableColumn id="2" xr3:uid="{76190C3E-BFA4-42D1-BF58-69831D46A701}" name="Action (From Vanilla)"/>
     <tableColumn id="3" xr3:uid="{8F282AED-93B1-4497-B4CD-6042584921E2}" name="Pickups (continued)"/>
@@ -2202,7 +2225,6 @@
     <tableColumn id="5" xr3:uid="{C941F8A9-6849-4A98-B540-F9901510E5E4}" name="Correspond">
       <calculatedColumnFormula>IF($C4=$A4, 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC54279B-EBE1-49AF-B8EE-5BED132D8E72}" name="Check 0.6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2211,14 +2233,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E0B9D5D4-EACA-4095-9C49-DF500D7B0586}" name="Table3" displayName="Table3" ref="B2:F13" totalsRowShown="0">
   <autoFilter ref="B2:F13" xr:uid="{6DE500A4-19A8-47AC-B7F1-0EAEFC695FF2}"/>
-  <sortState ref="B3:F13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F13">
     <sortCondition ref="C2:C13"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9D047D88-CDF7-45B0-87C2-52E7CBCE679C}" name="Type"/>
     <tableColumn id="2" xr3:uid="{E0E73623-52DD-4D02-8BFE-8075708224C7}" name="Slots for 8"/>
     <tableColumn id="5" xr3:uid="{646F4361-1474-4653-95E4-FD4FFC0A0577}" name="Slots for 4"/>
-    <tableColumn id="3" xr3:uid="{FCB35805-B448-4C09-A920-EC20CAD445A7}" name="Count" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{FCB35805-B448-4C09-A920-EC20CAD445A7}" name="Count" dataDxfId="5">
       <calculatedColumnFormula>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{5C9CB239-E89B-4C52-947B-C965F885C150}" name="Note"/>
@@ -2524,11 +2546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF7A180-AB51-48F6-ACE8-D5FBCFE7F65C}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,1702 +2567,1788 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="I2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="J10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
+      <c r="A11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="11">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="11">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="11">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="7">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="11">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="7">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="11">
-        <v>21</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="J25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="7">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11">
-        <v>24</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="7">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="11">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="11">
-        <v>26</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="B30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
-        <v>27</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="11">
-        <v>28</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="B32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="7">
+        <v>30</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="11">
-        <v>29</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="B33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="11">
-        <v>30</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="B34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="7">
+        <v>32</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="11">
-        <v>31</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7">
+        <v>33</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="11">
-        <v>32</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="B36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="7">
+        <v>34</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11">
-        <v>33</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7">
+        <v>35</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="11">
-        <v>34</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7">
+        <v>36</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11">
-        <v>35</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7">
+        <v>37</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="11">
-        <v>36</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="B40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="7">
+        <v>38</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="7">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="11">
-        <v>38</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7">
+        <v>40</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="11">
-        <v>39</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7">
+        <v>41</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11">
-        <v>40</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7">
+        <v>42</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11">
-        <v>41</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="11">
-        <v>42</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>43</v>
       </c>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
       <c r="J45" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7">
+        <v>44</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11">
-        <v>44</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="7">
+        <v>46</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="11">
-        <v>45</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="B49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="7">
+        <v>47</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="11">
-        <v>46</v>
-      </c>
-      <c r="D48" s="11">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="11">
-        <v>47</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>48</v>
       </c>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1</v>
-      </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="J50" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7">
+        <v>49</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7">
+        <v>50</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11">
-        <v>49</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>0</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7">
+        <v>51</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11">
-        <v>50</v>
-      </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7">
+        <v>52</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11">
-        <v>51</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <v>0</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7">
+        <v>53</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11">
-        <v>52</v>
-      </c>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7">
+        <v>54</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11">
-        <v>53</v>
-      </c>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7">
+        <v>55</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11">
-        <v>54</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="B58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="7">
+        <v>56</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="J58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11">
-        <v>55</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7">
+        <v>57</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="11">
-        <v>56</v>
-      </c>
-      <c r="D58" s="11">
-        <v>1</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>1</v>
-      </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="J58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="B60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="7">
+        <v>58</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11">
-        <v>57</v>
-      </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7">
+        <v>59</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="11">
-        <v>58</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="B62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="7">
+        <v>60</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="J62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11">
-        <v>59</v>
-      </c>
-      <c r="D61" s="11">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="B63" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="7">
+        <v>61</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="11">
-        <v>60</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>1</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="J62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7">
+        <v>62</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="11">
+      <c r="B65" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="11">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="C65" s="7">
+        <v>63</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="J65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11">
-        <v>62</v>
-      </c>
-      <c r="D64" s="11">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7">
+        <v>64</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="11">
-        <v>63</v>
-      </c>
-      <c r="D65" s="11">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>1</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="J65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="B67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="7">
+        <v>65</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11">
-        <v>64</v>
-      </c>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7">
+        <v>66</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C67" s="11">
-        <v>65</v>
-      </c>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="B69" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="7">
+        <v>67</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7">
+        <v>68</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C71" s="7">
+        <v>69</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11">
-        <v>66</v>
-      </c>
-      <c r="D68" s="11">
-        <v>0</v>
-      </c>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="B72" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C72" s="7">
+        <v>70</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="11">
-        <v>67</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7">
+        <v>71</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" s="7">
+        <v>72</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7">
+        <v>74</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7">
+        <v>73</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7">
+        <v>75</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C78" s="7">
+        <v>76</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7">
+        <v>77</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11">
-        <v>68</v>
-      </c>
-      <c r="D70" s="11">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <v>0</v>
-      </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C71" s="11">
-        <v>69</v>
-      </c>
-      <c r="D71" s="11">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C72" s="11">
-        <v>70</v>
-      </c>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-      <c r="F72" s="11">
-        <v>0</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11">
-        <v>71</v>
-      </c>
-      <c r="D73" s="11">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C74" s="11">
-        <v>72</v>
-      </c>
-      <c r="D74" s="11">
-        <v>1</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <v>0</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11">
-        <v>74</v>
-      </c>
-      <c r="D75" s="11">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11">
-        <v>73</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11">
-        <v>75</v>
-      </c>
-      <c r="D77" s="11">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11">
-        <v>0</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7">
+        <v>78</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7">
+        <v>79</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11">
-        <v>76</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7">
+        <v>80</v>
+      </c>
+      <c r="D82" s="7">
         <f>SUM(D$3:D$68)</f>
         <v>23</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E82" s="7">
         <f>SUM(E$3:E$68)</f>
         <v>20</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F82" s="7">
         <f>SUM(F$3:F$68)</f>
         <v>25</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:F78">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+  <conditionalFormatting sqref="D2:F82">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4254,23 +4362,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D2457-7DD7-41BC-A5B8-44E625E2EF4A}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4282,28 +4390,28 @@
         <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>481</v>
+        <v>324</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4326,14 +4434,14 @@
       <c r="G2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2">
         <v>890</v>
       </c>
       <c r="K2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4356,14 +4464,14 @@
       <c r="G3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3">
         <v>735</v>
       </c>
       <c r="K3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4387,13 +4495,13 @@
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3">
         <v>1006</v>
       </c>
       <c r="K4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4417,7 +4525,7 @@
         <v>195</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I5" s="3">
         <v>640</v>
@@ -4443,10 +4551,10 @@
       <c r="G6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6">
         <v>355</v>
       </c>
     </row>
@@ -4471,7 +4579,7 @@
         <v>189</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I7" s="3">
         <v>390</v>
@@ -4497,10 +4605,10 @@
       <c r="G8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8">
         <v>470</v>
       </c>
     </row>
@@ -4525,10 +4633,10 @@
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4552,7 +4660,7 @@
         <v>202</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I10" s="3">
         <v>75</v>
@@ -4576,10 +4684,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I11" s="3">
         <v>850</v>
@@ -4605,10 +4713,10 @@
       <c r="G12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" t="s">
+        <v>312</v>
+      </c>
+      <c r="I12">
         <v>300</v>
       </c>
     </row>
@@ -4632,10 +4740,10 @@
       <c r="G13" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13">
         <v>900</v>
       </c>
     </row>
@@ -4659,10 +4767,10 @@
       <c r="G14" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14">
         <v>825</v>
       </c>
     </row>
@@ -4684,13 +4792,13 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4711,13 +4819,13 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4736,13 +4844,13 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4763,13 +4871,13 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4790,13 +4898,13 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4817,13 +4925,13 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,13 +4952,13 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4873,11 +4981,11 @@
       <c r="G22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>219</v>
+      <c r="H22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4900,11 +5008,11 @@
       <c r="G23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>219</v>
+      <c r="H23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4921,13 +5029,13 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4950,10 +5058,10 @@
       <c r="G25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25">
         <v>388</v>
       </c>
     </row>
@@ -4977,10 +5085,10 @@
       <c r="G26" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26">
         <v>404</v>
       </c>
     </row>
@@ -5004,10 +5112,10 @@
       <c r="G27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" t="s">
+        <v>320</v>
+      </c>
+      <c r="I27">
         <v>378</v>
       </c>
     </row>
@@ -5031,10 +5139,10 @@
       <c r="G28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28">
         <v>403</v>
       </c>
     </row>
@@ -5058,10 +5166,10 @@
       <c r="G29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I29">
         <v>853</v>
       </c>
     </row>
@@ -5085,10 +5193,10 @@
       <c r="G30" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30">
         <v>850</v>
       </c>
     </row>
@@ -5112,11 +5220,11 @@
       <c r="G31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>394</v>
+      <c r="H31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,10 +5247,10 @@
       <c r="G32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32">
         <v>350</v>
       </c>
     </row>
@@ -5166,10 +5274,10 @@
       <c r="G33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33">
         <v>400</v>
       </c>
     </row>
@@ -5193,11 +5301,11 @@
       <c r="G34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>219</v>
+      <c r="H34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,11 +5328,11 @@
       <c r="G35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>219</v>
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5247,11 +5355,11 @@
       <c r="G36" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>219</v>
+      <c r="H36" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5274,11 +5382,11 @@
       <c r="G37" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>219</v>
+      <c r="H37" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,11 +5409,11 @@
       <c r="G38" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>219</v>
+      <c r="H38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5328,11 +5436,11 @@
       <c r="G39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>219</v>
+      <c r="H39" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,11 +5463,11 @@
       <c r="G40" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>219</v>
+      <c r="H40" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5380,13 +5488,13 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="H41" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,13 +5515,13 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5436,81 +5544,81 @@
       <c r="G43" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H43" t="s">
+        <v>392</v>
+      </c>
+      <c r="I43">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="H44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
         <v>3</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" t="s">
+        <v>485</v>
+      </c>
+      <c r="I45">
         <v>792</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" t="s">
+        <v>484</v>
+      </c>
+      <c r="I46">
         <v>960</v>
       </c>
     </row>
@@ -5519,25 +5627,25 @@
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H47" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="I47" s="8">
+      <c r="H47" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47">
         <v>76</v>
       </c>
     </row>
@@ -5546,23 +5654,23 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I48" s="8">
+      <c r="H48" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48">
         <v>870</v>
       </c>
     </row>
@@ -5578,17 +5686,17 @@
         <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>392</v>
+      <c r="H49" t="s">
+        <v>341</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5596,24 +5704,24 @@
         <v>69</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>5</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>219</v>
+        <v>336</v>
+      </c>
+      <c r="H50" t="s">
+        <v>259</v>
+      </c>
+      <c r="I50" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5636,10 +5744,10 @@
       <c r="G51" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I51" s="8">
+      <c r="H51" t="s">
+        <v>387</v>
+      </c>
+      <c r="I51">
         <v>250</v>
       </c>
     </row>
@@ -5661,13 +5769,13 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H52" t="s">
+        <v>259</v>
+      </c>
+      <c r="I52" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,10 +5798,10 @@
       <c r="G53" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="H53" t="s">
+        <v>369</v>
+      </c>
+      <c r="I53">
         <v>390</v>
       </c>
     </row>
@@ -5715,12 +5823,12 @@
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H54" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="I54" s="8">
+      <c r="H54" t="s">
+        <v>383</v>
+      </c>
+      <c r="I54">
         <v>366</v>
       </c>
     </row>
@@ -5742,12 +5850,12 @@
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H55" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I55" s="8">
+      <c r="H55" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55">
         <v>990</v>
       </c>
     </row>
@@ -5771,10 +5879,10 @@
       <c r="G56" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="I56" s="8">
+      <c r="H56" t="s">
+        <v>382</v>
+      </c>
+      <c r="I56">
         <v>735</v>
       </c>
     </row>
@@ -5796,13 +5904,13 @@
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H57" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>374</v>
+      <c r="H57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5823,13 +5931,13 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H58" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5853,7 +5961,7 @@
         <v>189</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I59" s="3">
         <v>360</v>
@@ -5877,10 +5985,10 @@
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I60" s="3">
         <v>110</v>
@@ -5906,10 +6014,10 @@
       <c r="G61" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I61" s="8">
+      <c r="H61" t="s">
+        <v>377</v>
+      </c>
+      <c r="I61">
         <v>475</v>
       </c>
     </row>
@@ -5933,10 +6041,10 @@
       <c r="G62" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H62" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I62" s="8">
+      <c r="H62" t="s">
+        <v>376</v>
+      </c>
+      <c r="I62">
         <v>320</v>
       </c>
     </row>
@@ -5958,13 +6066,13 @@
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H63" t="s">
+        <v>259</v>
+      </c>
+      <c r="I63" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5985,10 +6093,10 @@
       <c r="G64" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I64" s="8">
+      <c r="H64" t="s">
+        <v>374</v>
+      </c>
+      <c r="I64">
         <v>970</v>
       </c>
     </row>
@@ -6010,10 +6118,10 @@
       <c r="G65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I65" s="8">
+      <c r="H65" t="s">
+        <v>375</v>
+      </c>
+      <c r="I65">
         <v>375</v>
       </c>
     </row>
@@ -6035,11 +6143,11 @@
       <c r="G66" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" t="s">
+        <v>372</v>
+      </c>
+      <c r="I66" t="s">
         <v>373</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -6060,10 +6168,10 @@
       <c r="G67" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="I67" s="8">
+      <c r="H67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I67">
         <v>351</v>
       </c>
     </row>
@@ -6085,10 +6193,10 @@
       <c r="G68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I68" s="8">
+      <c r="H68" t="s">
+        <v>348</v>
+      </c>
+      <c r="I68">
         <v>450</v>
       </c>
     </row>
@@ -6108,13 +6216,13 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
+      </c>
+      <c r="H69" t="s">
+        <v>259</v>
+      </c>
+      <c r="I69" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -6135,13 +6243,13 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>371</v>
+        <v>225</v>
+      </c>
+      <c r="H70" t="s">
+        <v>370</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6162,13 +6270,13 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>219</v>
+        <v>259</v>
+      </c>
+      <c r="H71" t="s">
+        <v>259</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -6188,15 +6296,15 @@
         <v>17</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I72" s="8">
+      <c r="H72" t="s">
+        <v>368</v>
+      </c>
+      <c r="I72">
         <v>879</v>
       </c>
     </row>
@@ -6220,10 +6328,10 @@
       <c r="G73" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="H73" t="s">
+        <v>364</v>
+      </c>
+      <c r="I73">
         <v>715</v>
       </c>
     </row>
@@ -6248,7 +6356,7 @@
         <v>195</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I74" s="3">
         <v>1006</v>
@@ -6275,7 +6383,7 @@
         <v>189</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I75" s="3">
         <v>381</v>
@@ -6302,7 +6410,7 @@
         <v>196</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I76" s="3">
         <v>875</v>
@@ -6329,7 +6437,7 @@
         <v>189</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I77" s="3">
         <v>390</v>
@@ -6353,13 +6461,13 @@
         <v>187</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6380,13 +6488,13 @@
         <v>187</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6405,13 +6513,13 @@
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,7 +6543,7 @@
         <v>195</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I81" s="3">
         <v>925</v>
@@ -6462,7 +6570,7 @@
         <v>195</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I82" s="3">
         <v>850</v>
@@ -6487,7 +6595,7 @@
         <v>192</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I83" s="3">
         <v>230</v>
@@ -6513,11 +6621,11 @@
       <c r="G84" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>390</v>
+      <c r="H84" t="s">
+        <v>358</v>
+      </c>
+      <c r="I84" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6540,11 +6648,11 @@
       <c r="G85" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>390</v>
+      <c r="H85" t="s">
+        <v>359</v>
+      </c>
+      <c r="I85" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,10 +6675,10 @@
       <c r="G86" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H86" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I86" s="8">
+      <c r="H86" t="s">
+        <v>362</v>
+      </c>
+      <c r="I86">
         <v>337</v>
       </c>
     </row>
@@ -6594,10 +6702,10 @@
       <c r="G87" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I87" s="8">
+      <c r="H87" t="s">
+        <v>363</v>
+      </c>
+      <c r="I87">
         <v>762</v>
       </c>
     </row>
@@ -6619,12 +6727,12 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I88" s="8">
+        <v>223</v>
+      </c>
+      <c r="H88" t="s">
+        <v>356</v>
+      </c>
+      <c r="I88">
         <v>430</v>
       </c>
     </row>
@@ -6646,13 +6754,13 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="H89" t="s">
+        <v>259</v>
+      </c>
+      <c r="I89" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6673,13 +6781,13 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="H90" t="s">
+        <v>259</v>
+      </c>
+      <c r="I90" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6702,8 +6810,8 @@
       <c r="G91" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>356</v>
+      <c r="H91" t="s">
+        <v>355</v>
       </c>
       <c r="I91" s="3">
         <v>930</v>
@@ -6729,10 +6837,10 @@
       <c r="G92" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I92" s="8">
+      <c r="H92" t="s">
+        <v>352</v>
+      </c>
+      <c r="I92">
         <v>722</v>
       </c>
     </row>
@@ -6757,10 +6865,10 @@
         <v>191</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6784,7 +6892,7 @@
         <v>202</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I94" s="3">
         <v>76</v>
@@ -6808,13 +6916,13 @@
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6835,13 +6943,13 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -6862,13 +6970,13 @@
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -6892,10 +7000,10 @@
         <v>197</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6919,7 +7027,7 @@
         <v>189</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I99" s="3">
         <v>320</v>
@@ -6943,16 +7051,16 @@
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>36</v>
       </c>
@@ -6970,16 +7078,16 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>34</v>
       </c>
@@ -6997,16 +7105,16 @@
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>34</v>
       </c>
@@ -7022,16 +7130,16 @@
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -7052,13 +7160,13 @@
         <v>191</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I104" s="3">
         <v>450</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>34</v>
       </c>
@@ -7076,16 +7184,16 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>62</v>
       </c>
@@ -7095,42 +7203,144 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
         <v>203</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
+        <v>6</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I107" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B111" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D111">
         <f>COUNT(C$2:C$106)</f>
         <v>84</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E111">
         <f>COUNT(D$2:D$106)</f>
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D107:E1048576 C1:D106">
-    <cfRule type="containsBlanks" dxfId="15" priority="1">
+  <conditionalFormatting sqref="C1:D110">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
-      <formula>LEN(TRIM(C1))=0</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111:E1048576">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7143,10 +7353,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4460B325-2B75-4489-AB1C-DEC855CB3F20}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7158,40 +7368,37 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" t="s">
-        <v>327</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>298</v>
-      </c>
-      <c r="G3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>189</v>
@@ -7206,16 +7413,13 @@
         <f t="shared" ref="F4:F18" si="0">IF($C4=$A4, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
         <v>192</v>
@@ -7230,11 +7434,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>190</v>
       </c>
@@ -7248,11 +7449,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>191</v>
       </c>
@@ -7266,11 +7464,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>193</v>
       </c>
@@ -7284,16 +7479,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>195</v>
@@ -7308,16 +7500,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -7332,16 +7521,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
         <v>194</v>
@@ -7356,14 +7542,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>396</v>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="D12">
         <v>600</v>
@@ -7375,16 +7558,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
         <v>197</v>
@@ -7399,11 +7579,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>198</v>
       </c>
@@ -7417,11 +7594,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>199</v>
       </c>
@@ -7435,16 +7609,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -7456,16 +7627,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -7477,16 +7645,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
         <v>200</v>
@@ -7498,16 +7663,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>201</v>
@@ -7519,19 +7681,16 @@
         <f t="shared" ref="F19:F62" si="1">IF($C19=$A19, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
         <v>186</v>
@@ -7540,16 +7699,13 @@
         <f>IF($C20=$A20, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>202</v>
@@ -7564,16 +7720,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
         <v>203</v>
@@ -7585,16 +7738,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
         <v>204</v>
@@ -7609,16 +7759,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s">
         <v>205</v>
@@ -7630,16 +7777,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
         <v>206</v>
@@ -7654,16 +7798,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
         <v>207</v>
@@ -7675,16 +7816,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
         <v>208</v>
@@ -7699,16 +7837,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
         <v>209</v>
@@ -7723,16 +7858,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
         <v>210</v>
@@ -7747,16 +7879,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
         <v>211</v>
@@ -7771,16 +7900,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
         <v>212</v>
@@ -7795,16 +7921,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>213</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
         <v>213</v>
@@ -7816,16 +7939,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
@@ -7837,16 +7957,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
         <v>215</v>
@@ -7858,16 +7975,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>216</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
         <v>216</v>
@@ -7879,16 +7993,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
         <v>217</v>
@@ -7900,16 +8011,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
         <v>218</v>
@@ -7921,19 +8029,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
         <v>186</v>
@@ -7942,19 +8047,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
         <v>186</v>
@@ -7963,19 +8065,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
         <v>186</v>
@@ -7984,19 +8083,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
         <v>186</v>
@@ -8005,19 +8101,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
         <v>186</v>
@@ -8026,19 +8119,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
         <v>186</v>
@@ -8047,19 +8137,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
         <v>186</v>
@@ -8068,19 +8155,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>186</v>
@@ -8089,19 +8173,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
         <v>186</v>
@@ -8110,19 +8191,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
         <v>186</v>
@@ -8131,19 +8209,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
         <v>186</v>
@@ -8152,19 +8227,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
         <v>186</v>
@@ -8173,19 +8245,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
         <v>186</v>
@@ -8194,19 +8263,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E51" t="s">
         <v>186</v>
@@ -8215,19 +8281,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E52" t="s">
         <v>186</v>
@@ -8236,19 +8299,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
         <v>186</v>
@@ -8257,19 +8317,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
         <v>186</v>
@@ -8278,19 +8335,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
         <v>186</v>
@@ -8299,19 +8353,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
         <v>186</v>
@@ -8320,19 +8371,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
         <v>186</v>
@@ -8341,19 +8389,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
         <v>186</v>
@@ -8362,19 +8407,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E59" t="s">
         <v>186</v>
@@ -8383,19 +8425,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
         <v>186</v>
@@ -8404,19 +8443,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E61" t="s">
         <v>186</v>
@@ -8425,19 +8461,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E62" t="s">
         <v>186</v>
@@ -8446,51 +8479,90 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F63">
         <f>IF($C63=$A63, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F64">
         <f>IF($C64=$A64, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>502</v>
+      </c>
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="s">
+        <v>502</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65">
+        <f>IF($C65=$A65, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>501</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>496</v>
+      </c>
+      <c r="F66">
+        <f>IF($C66=$A66, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E65:E1048576 E1:E2 F3:F64">
+  <conditionalFormatting sqref="E1:E2 E67:E1048576 F3:F66">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8514,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934EE0AE-1B6A-4937-B702-B4463A5A27C2}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,7 +8604,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -8540,16 +8612,16 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
         <v>269</v>
       </c>
-      <c r="D2" t="s">
-        <v>270</v>
-      </c>
       <c r="E2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" t="s">
         <v>249</v>
-      </c>
-      <c r="F2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -8567,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -8582,7 +8654,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -8642,10 +8714,10 @@
       </c>
       <c r="E8">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>255</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -8677,8 +8749,8 @@
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>254</v>
+      <c r="F10" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -8708,7 +8780,7 @@
       </c>
       <c r="E12">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -8723,42 +8795,42 @@
       </c>
       <c r="E13">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>18</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>252</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="6">
+        <v>252</v>
+      </c>
+      <c r="E14">
         <f>SUM(Table3[Count])</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <f>E14-3</f>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8769,7 +8841,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8786,7 +8858,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8803,7 +8875,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -8817,10 +8889,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -8837,7 +8909,7 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -8851,10 +8923,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -8871,7 +8943,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -8888,7 +8960,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -8899,7 +8971,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8915,51 +8987,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A959348-905D-44BB-AE3B-A8227DE6F451}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
         <v>260</v>
-      </c>
-      <c r="C1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Dev Note.xlsx
+++ b/Dev Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openit\Desktop\Support for InfamousSabre's Pickups - 0.7.alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Desktop\Games\Support for InfamousSabre's Pickups - 0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC68D9-85F6-419F-8709-2D200B3014FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288E106-9DCB-4446-9956-675B33562A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="DLCs" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="523">
   <si>
     <t>AMMO_PISTOL</t>
   </si>
@@ -129,9 +129,6 @@
     <t>PICKUP_PORTABLE_CRATE_FIXED_INCAR</t>
   </si>
   <si>
-    <t>Imm. Pickups</t>
-  </si>
-  <si>
     <t>PICKUP_PORTABLE_DLC_VEHICLE_PACKAGE</t>
   </si>
   <si>
@@ -1017,9 +1014,6 @@
     <t>Real-life counterpart</t>
   </si>
   <si>
-    <t>*ONLY IN update.rpf/common/data/ai/weapons.meta</t>
-  </si>
-  <si>
     <t>Max Capacity</t>
   </si>
   <si>
@@ -1057,12 +1051,6 @@
   </si>
   <si>
     <t>.ydr no Bounds</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>AMMO_45C --&gt; 180</t>
   </si>
   <si>
     <t>TASER 7 (+ M26 Taser)</t>
@@ -1556,29 +1544,77 @@
     <t>AMMO_ACIDPACKAGE</t>
   </si>
   <si>
+    <t>mp2023_01</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mp2023_01</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/patch2023_01</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/patch2023_01_g9ec</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mp2023_01_g9ec</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mp2023_02</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/patch2023_02</t>
+  </si>
+  <si>
+    <t>./update/x64/dlcpacks/mp2023_02_g9ec</t>
+  </si>
+  <si>
     <t>pickups.meta
-metaldetector
-tacticlerifle</t>
+tecpistol</t>
+  </si>
+  <si>
+    <t>San Andreas Mercenaries</t>
+  </si>
+  <si>
+    <t>The Chop Shop</t>
+  </si>
+  <si>
+    <t>Tactical SMG</t>
+  </si>
+  <si>
+    <t>Steyr TMP</t>
+  </si>
+  <si>
+    <t>Battle Rifle</t>
+  </si>
+  <si>
+    <t>Snowball Launcher</t>
+  </si>
+  <si>
+    <t>Hacking Device</t>
+  </si>
+  <si>
+    <t>FN FAL</t>
+  </si>
+  <si>
+    <t>mp2023_02</t>
+  </si>
+  <si>
+    <t>AMMO_SNOWLAUNCHER</t>
+  </si>
+  <si>
+    <t>pickups.meta
+battlerifle
+hackingdevice (n/a)
+snowlauncher</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">pickups.meta
+      <t>pickups.meta
 acidpackage
-</t>
+candycane (n/a)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>candycane</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1589,6 +1625,17 @@
 pistolxm3
 railgunxm3</t>
     </r>
+  </si>
+  <si>
+    <t>AmmoMax</t>
+  </si>
+  <si>
+    <t>pickups.meta
+metaldetector (n/a)
+tacticlerifle</t>
+  </si>
+  <si>
+    <t>This package receives future updates</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1672,16 +1719,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -2085,9 +2131,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2173,18 +2216,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D7AC28-B82E-4235-BF60-33309FF7CD10}" name="Table1" displayName="Table1" ref="A1:H82" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:H82" xr:uid="{F5E06541-6411-41C9-87DA-147E54787D01}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
-    <sortCondition ref="C1:C82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D7AC28-B82E-4235-BF60-33309FF7CD10}" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0" dataDxfId="25">
+  <autoFilter ref="A1:G89" xr:uid="{F5E06541-6411-41C9-87DA-147E54787D01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
+    <sortCondition ref="C1:C89"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CDCC4CDA-1650-4290-B9E5-854A45FDE967}" name="Archive (excluding dlcpatch)" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{6D7F440E-9D9B-4FD4-B229-3ED78D1621A5}" name="DLC Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A1AEDF67-0BD7-4C19-8887-A1C5BF856BF9}" name="Order" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{50A9C864-6602-4AEA-975C-65B3D539138E}" name="Has weapons" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{FB5ED569-7644-4ABC-82DA-46F56FA3A5E0}" name="Pickups 2.2" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{520F22FE-CD61-44F5-BEE4-F262BBCCDC5A}" name="Imm. Pickups" dataDxfId="20"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CDCC4CDA-1650-4290-B9E5-854A45FDE967}" name="Archive (excluding dlcpatch)" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{6D7F440E-9D9B-4FD4-B229-3ED78D1621A5}" name="DLC Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A1AEDF67-0BD7-4C19-8887-A1C5BF856BF9}" name="Order" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{50A9C864-6602-4AEA-975C-65B3D539138E}" name="Has weapons" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{FB5ED569-7644-4ABC-82DA-46F56FA3A5E0}" name="Pickups 2.2" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{BC0B9839-6D4B-4BEE-B00C-B4FF40BFF5F9}" name="dlcpacks" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{24A3B97B-FF34-4EF2-9090-F168CAA65069}" name="dlcpatch" dataDxfId="18"/>
   </tableColumns>
@@ -2193,10 +2235,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I110" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:I110" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I110">
-    <sortCondition descending="1" ref="E1:E110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I114" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:I114" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
+    <sortCondition ref="E1:E114"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{64DB3FD4-1DD7-4D21-BE5D-BCBEC25E4D4D}" name="Type" dataDxfId="14"/>
@@ -2214,8 +2256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FCE1476B-608C-4F30-BA4D-B7475E2D1D30}" name="Table4" displayName="Table4" ref="A3:F66" totalsRowShown="0">
-  <autoFilter ref="A3:F66" xr:uid="{733E2478-E587-4693-B19F-B6044616A7CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FCE1476B-608C-4F30-BA4D-B7475E2D1D30}" name="Table4" displayName="Table4" ref="A1:F65" totalsRowShown="0">
+  <autoFilter ref="A1:F65" xr:uid="{733E2478-E587-4693-B19F-B6044616A7CA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{655E3EA6-DEB1-46FE-B364-B018FB7F6DBA}" name="Vanilla"/>
     <tableColumn id="2" xr3:uid="{76190C3E-BFA4-42D1-BF58-69831D46A701}" name="Action (From Vanilla)"/>
@@ -2223,7 +2265,7 @@
     <tableColumn id="4" xr3:uid="{B40317F6-33B0-4679-B5CF-20AC9E65D695}" name="Max Capacity"/>
     <tableColumn id="7" xr3:uid="{5188A9F9-685E-4698-944F-D3EC447B366B}" name="DLC"/>
     <tableColumn id="5" xr3:uid="{C941F8A9-6849-4A98-B540-F9901510E5E4}" name="Correspond">
-      <calculatedColumnFormula>IF($C4=$A4, 1, 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($C2=$A2, 1, 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2546,32 +2588,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF7A180-AB51-48F6-ACE8-D5FBCFE7F65C}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.265625" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>26</v>
@@ -2583,24 +2624,21 @@
         <v>24</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -2609,50 +2647,41 @@
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>487</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="I2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
@@ -2663,18 +2692,15 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -2685,18 +2711,15 @@
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -2707,18 +2730,15 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -2729,18 +2749,15 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2751,18 +2768,15 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -2773,18 +2787,15 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="7">
         <v>8</v>
@@ -2795,18 +2806,15 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7">
@@ -2818,18 +2826,15 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -2840,18 +2845,15 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7">
         <v>11</v>
@@ -2862,18 +2864,15 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -2884,15 +2883,12 @@
       <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7">
@@ -2904,15 +2900,12 @@
       <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7">
@@ -2924,18 +2917,15 @@
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="7">
         <v>15</v>
@@ -2946,15 +2936,12 @@
       <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
@@ -2966,15 +2953,12 @@
       <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
@@ -2986,15 +2970,12 @@
       <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7">
@@ -3006,18 +2987,15 @@
       <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="7">
         <v>19</v>
@@ -3028,15 +3006,12 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7">
@@ -3048,18 +3023,15 @@
       <c r="E22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="7">
         <v>21</v>
@@ -3070,15 +3042,12 @@
       <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -3090,15 +3059,12 @@
       <c r="E24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7">
@@ -3110,18 +3076,15 @@
       <c r="E25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="J25" t="s">
+      <c r="I25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
@@ -3133,18 +3096,15 @@
       <c r="E26" s="7">
         <v>0</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7">
         <v>25</v>
@@ -3155,18 +3115,15 @@
       <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="7">
         <v>26</v>
@@ -3177,15 +3134,12 @@
       <c r="E28" s="7">
         <v>1</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7">
@@ -3197,18 +3151,15 @@
       <c r="E29" s="7">
         <v>0</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="7">
         <v>28</v>
@@ -3219,18 +3170,15 @@
       <c r="E30" s="7">
         <v>1</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="7">
         <v>29</v>
@@ -3241,18 +3189,15 @@
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="7">
         <v>30</v>
@@ -3263,18 +3208,15 @@
       <c r="E32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="7">
         <v>31</v>
@@ -3285,18 +3227,15 @@
       <c r="E33" s="7">
         <v>0</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="7">
         <v>32</v>
@@ -3307,15 +3246,12 @@
       <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
@@ -3327,18 +3263,15 @@
       <c r="E35" s="7">
         <v>0</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="7">
         <v>34</v>
@@ -3349,15 +3282,12 @@
       <c r="E36" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7">
@@ -3369,18 +3299,15 @@
       <c r="E37" s="7">
         <v>0</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="7">
         <v>36</v>
@@ -3391,15 +3318,12 @@
       <c r="E38" s="7">
         <v>0</v>
       </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7">
@@ -3411,18 +3335,15 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="7">
         <v>38</v>
@@ -3433,18 +3354,15 @@
       <c r="E40" s="7">
         <v>0</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="7">
         <v>39</v>
@@ -3455,15 +3373,12 @@
       <c r="E41" s="7">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7">
@@ -3475,15 +3390,12 @@
       <c r="E42" s="7">
         <v>0</v>
       </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7">
@@ -3495,18 +3407,15 @@
       <c r="E43" s="7">
         <v>0</v>
       </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="7">
         <v>42</v>
@@ -3517,18 +3426,15 @@
       <c r="E44" s="7">
         <v>0</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7">
         <v>43</v>
@@ -3539,18 +3445,15 @@
       <c r="E45" s="7">
         <v>1</v>
       </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="J45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7">
@@ -3562,18 +3465,15 @@
       <c r="E46" s="7">
         <v>0</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="7">
         <v>45</v>
@@ -3584,18 +3484,15 @@
       <c r="E47" s="7">
         <v>0</v>
       </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="7">
         <v>46</v>
@@ -3606,18 +3503,15 @@
       <c r="E48" s="7">
         <v>1</v>
       </c>
-      <c r="F48" s="7">
-        <v>1</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="7">
         <v>47</v>
@@ -3628,18 +3522,15 @@
       <c r="E49" s="7">
         <v>0</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="7">
         <v>48</v>
@@ -3650,18 +3541,15 @@
       <c r="E50" s="7">
         <v>1</v>
       </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="J50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7">
@@ -3673,15 +3561,12 @@
       <c r="E51" s="7">
         <v>0</v>
       </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7">
@@ -3693,15 +3578,12 @@
       <c r="E52" s="7">
         <v>0</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7">
@@ -3713,15 +3595,12 @@
       <c r="E53" s="7">
         <v>0</v>
       </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7">
@@ -3733,15 +3612,12 @@
       <c r="E54" s="7">
         <v>0</v>
       </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7">
@@ -3753,15 +3629,12 @@
       <c r="E55" s="7">
         <v>0</v>
       </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7">
@@ -3773,15 +3646,12 @@
       <c r="E56" s="7">
         <v>0</v>
       </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7">
@@ -3793,18 +3663,15 @@
       <c r="E57" s="7">
         <v>0</v>
       </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="7">
         <v>56</v>
@@ -3815,18 +3682,15 @@
       <c r="E58" s="7">
         <v>0</v>
       </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="J58" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7">
@@ -3838,18 +3702,15 @@
       <c r="E59" s="7">
         <v>0</v>
       </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="7">
         <v>58</v>
@@ -3860,15 +3721,12 @@
       <c r="E60" s="7">
         <v>0</v>
       </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7">
@@ -3880,18 +3738,15 @@
       <c r="E61" s="7">
         <v>0</v>
       </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="7">
         <v>60</v>
@@ -3902,21 +3757,18 @@
       <c r="E62" s="7">
         <v>0</v>
       </c>
-      <c r="F62" s="7">
-        <v>1</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="J62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C63" s="7">
         <v>61</v>
@@ -3927,15 +3779,12 @@
       <c r="E63" s="7">
         <v>0</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7">
@@ -3947,18 +3796,15 @@
       <c r="E64" s="7">
         <v>0</v>
       </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7">
         <v>63</v>
@@ -3969,18 +3815,15 @@
       <c r="E65" s="7">
         <v>0</v>
       </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="J65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7">
@@ -3992,18 +3835,15 @@
       <c r="E66" s="7">
         <v>0</v>
       </c>
-      <c r="F66" s="7">
-        <v>0</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C67" s="7">
         <v>65</v>
@@ -4014,15 +3854,12 @@
       <c r="E67" s="7">
         <v>0</v>
       </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7">
@@ -4034,18 +3871,15 @@
       <c r="E68" s="7">
         <v>0</v>
       </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C69" s="7">
         <v>67</v>
@@ -4056,19 +3890,16 @@
       <c r="E69" s="7">
         <v>0</v>
       </c>
-      <c r="F69" s="7">
-        <v>0</v>
+      <c r="F69" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7">
@@ -4080,18 +3911,15 @@
       <c r="E70" s="7">
         <v>0</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C71" s="7">
         <v>69</v>
@@ -4102,18 +3930,15 @@
       <c r="E71" s="7">
         <v>0</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C72" s="7">
         <v>70</v>
@@ -4124,15 +3949,12 @@
       <c r="E72" s="7">
         <v>0</v>
       </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7">
@@ -4144,18 +3966,15 @@
       <c r="E73" s="7">
         <v>0</v>
       </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C74" s="7">
         <v>72</v>
@@ -4166,19 +3985,16 @@
       <c r="E74" s="7">
         <v>0</v>
       </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7">
@@ -4190,15 +4006,12 @@
       <c r="E75" s="7">
         <v>0</v>
       </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7">
@@ -4210,15 +4023,12 @@
       <c r="E76" s="7">
         <v>0</v>
       </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7">
@@ -4230,18 +4040,15 @@
       <c r="E77" s="7">
         <v>0</v>
       </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="C78" s="7">
         <v>76</v>
@@ -4252,17 +4059,14 @@
       <c r="E78" s="7">
         <v>0</v>
       </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7">
@@ -4274,15 +4078,12 @@
       <c r="E79" s="7">
         <v>0</v>
       </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7">
@@ -4294,15 +4095,12 @@
       <c r="E80" s="7">
         <v>0</v>
       </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7">
@@ -4314,37 +4112,157 @@
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>508</v>
+      </c>
       <c r="C82" s="7">
         <v>80</v>
       </c>
       <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7">
+        <v>81</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7">
+        <v>82</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7">
+        <v>83</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A86" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C86" s="7">
+        <v>84</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7">
+        <v>85</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7">
+        <v>86</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
+        <v>87</v>
+      </c>
+      <c r="D89" s="7">
         <f>SUM(D$3:D$68)</f>
         <v>23</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E89" s="7">
         <f>SUM(E$3:E$68)</f>
         <v>20</v>
       </c>
-      <c r="F82" s="7">
-        <f>SUM(F$3:F$68)</f>
-        <v>25</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:F82">
+  <conditionalFormatting sqref="D2:E89">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4362,208 +4280,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D2457-7DD7-41BC-A5B8-44E625E2EF4A}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2">
-        <v>890</v>
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>499</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I3">
-        <v>735</v>
+        <v>188</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="11">
+        <v>400</v>
       </c>
       <c r="K3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>308</v>
+        <v>515</v>
       </c>
       <c r="I4" s="3">
-        <v>1006</v>
+        <v>840</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>195</v>
+        <v>474</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" s="3">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>517</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I6">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4572,133 +4477,131 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I7" s="3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="I10" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I11" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -4707,79 +4610,79 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="I12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -4788,262 +4691,268 @@
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H18" t="s">
-        <v>259</v>
-      </c>
-      <c r="I18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
-      </c>
-      <c r="I19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I19">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="11">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
-      </c>
-      <c r="I22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="I22">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -5052,25 +4961,25 @@
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" t="s">
-        <v>322</v>
-      </c>
-      <c r="I25">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I25" s="11">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -5079,457 +4988,445 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="I26">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H27" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I27">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="I28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
-      </c>
-      <c r="I29">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="I29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H30" t="s">
-        <v>317</v>
-      </c>
-      <c r="I30">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
         <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
-      </c>
-      <c r="I31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I31">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" t="s">
-        <v>315</v>
-      </c>
-      <c r="I33">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="I35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>211</v>
+        <v>497</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H38" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H39" t="s">
-        <v>259</v>
-      </c>
-      <c r="I39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" s="11">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
-      </c>
-      <c r="I40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="I40">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="I41">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="I42">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -5538,333 +5435,339 @@
         <v>5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="G43" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H43" t="s">
-        <v>392</v>
-      </c>
-      <c r="I43">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="I43" s="11">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
       <c r="D44" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>395</v>
+        <v>17</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H44" t="s">
-        <v>259</v>
-      </c>
-      <c r="I44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I44" s="11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B45" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
       <c r="D45" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>395</v>
+        <v>13</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="H45" t="s">
-        <v>485</v>
-      </c>
-      <c r="I45">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="I45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
       <c r="D46" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>483</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>484</v>
-      </c>
-      <c r="I46">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>338</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="H47" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="I47">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>330</v>
+        <v>107</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="I48">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" t="s">
-        <v>341</v>
-      </c>
-      <c r="I49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H50" t="s">
-        <v>259</v>
-      </c>
-      <c r="I50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" s="11">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3">
         <v>6</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H51" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I51">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I53">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>383</v>
-      </c>
-      <c r="I54">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I55">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5873,49 +5776,49 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" t="s">
-        <v>382</v>
-      </c>
-      <c r="I56">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I56" s="11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="H57" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="I57" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>96</v>
@@ -5924,82 +5827,82 @@
         <v>1</v>
       </c>
       <c r="D58" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H58" t="s">
-        <v>259</v>
-      </c>
-      <c r="I58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="I58" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I59" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I60" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -6012,682 +5915,686 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>199</v>
+        <v>380</v>
       </c>
       <c r="H61" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I61">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="H62" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I62">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I63" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I63" s="11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
       <c r="D64" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I64">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
       <c r="D65" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
-        <v>375</v>
-      </c>
-      <c r="I65">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H66" t="s">
-        <v>372</v>
-      </c>
-      <c r="I66" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I66" s="11">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
         <v>6</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>371</v>
-      </c>
-      <c r="I67">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="I67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="G68" s="3" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="H68" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I68">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
         <v>5</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H69" t="s">
-        <v>259</v>
-      </c>
-      <c r="I69" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>8</v>
+        <v>391</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H70" t="s">
-        <v>370</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="I70" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="G71" s="3" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="I71" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3">
+        <v>472</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="10">
+        <v>6</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H72" t="s">
+        <v>258</v>
+      </c>
+      <c r="I72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H72" t="s">
-        <v>368</v>
-      </c>
-      <c r="I72">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3">
-        <v>3</v>
-      </c>
       <c r="E73" s="3" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H73" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="I73">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I75" s="3">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="I76" s="3">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I77" s="3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
       <c r="D78" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
       <c r="D79" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="I79" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
       <c r="D80" s="3">
         <v>6</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="I80" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>361</v>
       </c>
       <c r="I81" s="3">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="I82" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
       <c r="D83" s="3">
         <v>6</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="I83" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
-      </c>
-      <c r="I84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="I84">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
-      </c>
-      <c r="I85" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="I85">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="I86">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
@@ -6696,214 +6603,212 @@
         <v>5</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="I87">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="H88" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="I88">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I89" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="H91" t="s">
-        <v>355</v>
-      </c>
-      <c r="I91" s="3">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="H92" t="s">
-        <v>352</v>
-      </c>
-      <c r="I92">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I94" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -6912,435 +6817,553 @@
         <v>7</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98" s="3">
-        <v>3</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="I99" s="3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="I100" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>388</v>
+        <v>196</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="I101" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="I102" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
       <c r="D103" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="I103" s="3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="I104" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2</v>
+      </c>
       <c r="E106" s="3" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="I106" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C107" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
       <c r="D107" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>500</v>
+        <v>314</v>
       </c>
       <c r="I107" s="3">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C108" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
       <c r="D108" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C109" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
       <c r="D109" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>501</v>
+        <v>209</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
       <c r="D110" s="3">
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>502</v>
+        <v>210</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115">
         <f>COUNT(C$2:C$106)</f>
-        <v>84</v>
-      </c>
-      <c r="E111">
+        <v>76</v>
+      </c>
+      <c r="E115">
         <f>COUNT(D$2:D$106)</f>
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D110">
+  <conditionalFormatting sqref="C1:D114">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D111:E1048576">
+  <conditionalFormatting sqref="D115:E1048576">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(D111))=0</formula>
+      <formula>LEN(TRIM(D115))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7353,53 +7376,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4460B325-2B75-4489-AB1C-DEC855CB3F20}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F16" si="0">IF($C2=$A2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" t="s">
-        <v>326</v>
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>189</v>
       </c>
@@ -7407,1162 +7461,1147 @@
         <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="0">IF($C4=$A4, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>298</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5">
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6">
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="D10">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>394</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>197</v>
       </c>
       <c r="D12">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>298</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
       <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
       <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F17:F60" si="1">IF($C17=$A17, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF($C18=$A18, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
         <v>201</v>
       </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F62" si="1">IF($C19=$A19, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20">
-        <f>IF($C20=$A20, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>333</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF($C61=$A61, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF($C62=$A62, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" t="s">
         <v>335</v>
       </c>
-      <c r="B63" t="s">
-        <v>337</v>
-      </c>
       <c r="C63" t="s">
-        <v>335</v>
+        <v>498</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>492</v>
       </c>
       <c r="F63">
         <f>IF($C63=$A63, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>336</v>
+        <v>497</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>328</v>
+        <v>492</v>
       </c>
       <c r="F64">
         <f>IF($C64=$A64, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F65">
         <f>IF($C65=$A65, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>501</v>
-      </c>
-      <c r="B66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C66" t="s">
-        <v>501</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>496</v>
-      </c>
-      <c r="F66">
-        <f>IF($C66=$A66, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E2 E67:E1048576 F3:F66">
+  <conditionalFormatting sqref="E66:E1048576 F1:F65">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8590,43 +8629,43 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>248</v>
       </c>
-      <c r="F2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8639,12 +8678,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8657,9 +8696,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -8669,12 +8708,12 @@
       </c>
       <c r="E5">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -8684,12 +8723,12 @@
       </c>
       <c r="E6">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -8702,9 +8741,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -8714,15 +8753,15 @@
       </c>
       <c r="E8">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -8735,9 +8774,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -8750,12 +8789,12 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -8768,9 +8807,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -8780,12 +8819,12 @@
       </c>
       <c r="E12">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -8798,67 +8837,67 @@
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>252</v>
       </c>
       <c r="E14">
         <f>SUM(Table3[Count])</f>
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <f>E14-3</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>233</v>
       </c>
-      <c r="B19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>234</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8867,15 +8906,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -8884,15 +8923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -8901,15 +8940,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -8918,15 +8957,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -8935,15 +8974,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -8952,15 +8991,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -8987,51 +9026,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A959348-905D-44BB-AE3B-A8227DE6F451}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Dev Note.xlsx
+++ b/Dev Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Desktop\Games\Support for InfamousSabre's Pickups - 0.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Documents\GitHub\support-pickups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288E106-9DCB-4446-9956-675B33562A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8B4C8-D73B-424D-BA54-112F05F4EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="DLCs" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="527">
   <si>
     <t>AMMO_PISTOL</t>
   </si>
@@ -1636,6 +1636,18 @@
   </si>
   <si>
     <t>This package receives future updates</t>
+  </si>
+  <si>
+    <t>El Strickler</t>
+  </si>
+  <si>
+    <t>mp2024_02_g9ec</t>
+  </si>
+  <si>
+    <t>The Shocker</t>
+  </si>
+  <si>
+    <t>mp2024_01</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1721,8 +1733,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2235,10 +2245,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I114" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:I114" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
-    <sortCondition ref="E1:E114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I116" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:I116" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{64DB3FD4-1DD7-4D21-BE5D-BCBEC25E4D4D}" name="Type" dataDxfId="14"/>
@@ -2292,9 +2302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2332,7 +2342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2438,7 +2448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2580,7 +2590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2590,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF7A180-AB51-48F6-ACE8-D5FBCFE7F65C}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
@@ -4280,12 +4290,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D2457-7DD7-41BC-A5B8-44E625E2EF4A}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4334,25 +4344,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>258</v>
+        <v>515</v>
+      </c>
+      <c r="I2">
+        <v>840</v>
       </c>
       <c r="K2" t="s">
         <v>476</v>
@@ -4360,27 +4370,29 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>499</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="I3" s="11">
-        <v>400</v>
+        <v>194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3">
+        <v>722</v>
       </c>
       <c r="K3" t="s">
         <v>477</v>
@@ -4391,22 +4403,26 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>516</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>515</v>
+        <v>351</v>
       </c>
       <c r="I4" s="3">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="K4" t="s">
         <v>300</v>
@@ -4414,27 +4430,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>474</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>258</v>
+        <v>357</v>
+      </c>
+      <c r="I5" s="3">
+        <v>925</v>
       </c>
       <c r="K5" t="s">
         <v>520</v>
@@ -4442,274 +4460,274 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>517</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3">
-        <v>450</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>258</v>
+        <v>307</v>
+      </c>
+      <c r="I8">
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>258</v>
+        <v>370</v>
+      </c>
+      <c r="I9" s="3">
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>258</v>
+        <v>331</v>
+      </c>
+      <c r="I11" s="3">
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="I12">
-        <v>76</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13">
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="H14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14">
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" t="s">
-        <v>258</v>
+        <v>306</v>
+      </c>
+      <c r="I15">
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4718,98 +4736,94 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>369</v>
+        <v>194</v>
+      </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16">
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" s="11">
-        <v>320</v>
+        <v>194</v>
+      </c>
+      <c r="H17" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="3">
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I19">
-        <v>722</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -4817,7 +4831,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -4826,179 +4840,173 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="H20" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="11">
-        <v>930</v>
+        <v>190</v>
+      </c>
+      <c r="H21" t="s">
+        <v>349</v>
+      </c>
+      <c r="I21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I22">
-        <v>430</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>258</v>
+        <v>191</v>
+      </c>
+      <c r="H23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>258</v>
+        <v>191</v>
+      </c>
+      <c r="H24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="I25" s="11">
-        <v>925</v>
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>492</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="I26">
-        <v>850</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -5006,24 +5014,26 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I27">
-        <v>230</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -5031,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -5040,17 +5050,17 @@
         <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="I28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -5058,80 +5068,74 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
-      </c>
-      <c r="I29" t="s">
-        <v>385</v>
+        <v>367</v>
+      </c>
+      <c r="I29">
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I30" s="11">
-        <v>337</v>
+        <v>190</v>
+      </c>
+      <c r="H30" t="s">
+        <v>344</v>
+      </c>
+      <c r="I30">
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="I31">
-        <v>762</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -5139,78 +5143,78 @@
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" t="s">
-        <v>258</v>
+        <v>372</v>
+      </c>
+      <c r="I32">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
       <c r="D33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" t="s">
-        <v>258</v>
+        <v>383</v>
+      </c>
+      <c r="I33">
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>258</v>
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I34" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -5218,284 +5222,280 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="H35" t="s">
-        <v>496</v>
-      </c>
-      <c r="I35">
-        <v>351</v>
+        <v>258</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
       <c r="D36" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>497</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" t="s">
-        <v>258</v>
+        <v>304</v>
+      </c>
+      <c r="I36">
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
       <c r="D37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I37" t="s">
-        <v>258</v>
+        <v>338</v>
+      </c>
+      <c r="I37">
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>258</v>
+        <v>188</v>
+      </c>
+      <c r="H38" t="s">
+        <v>361</v>
+      </c>
+      <c r="I38">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="I39" s="11">
-        <v>715</v>
+        <v>192</v>
+      </c>
+      <c r="H39" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39">
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40">
-        <v>1006</v>
+        <v>337</v>
+      </c>
+      <c r="I40" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41">
-        <v>381</v>
+        <v>258</v>
+      </c>
+      <c r="I41" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>17</v>
+        <v>516</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>195</v>
+        <v>517</v>
       </c>
       <c r="H42" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="I42">
-        <v>875</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H43" t="s">
-        <v>364</v>
-      </c>
-      <c r="I43" s="11">
-        <v>879</v>
+        <v>345</v>
+      </c>
+      <c r="I43">
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I44" s="11">
-        <v>390</v>
+        <v>222</v>
+      </c>
+      <c r="H44" t="s">
+        <v>352</v>
+      </c>
+      <c r="I44">
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G45" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s">
         <v>258</v>
@@ -5506,287 +5506,297 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>8</v>
+        <v>492</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>224</v>
+        <v>497</v>
       </c>
       <c r="H46" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
       <c r="D47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I47">
-        <v>351</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="G48" s="3" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="H48" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I48">
-        <v>450</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
       <c r="D49" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="I50" s="11">
-        <v>970</v>
+        <v>201</v>
+      </c>
+      <c r="H50" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
       <c r="D51" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="I51">
-        <v>375</v>
+        <v>850</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
       <c r="D52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>369</v>
+        <v>203</v>
+      </c>
+      <c r="H52" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52">
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="I53">
-        <v>320</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
-      </c>
-      <c r="I54" t="s">
-        <v>258</v>
+        <v>388</v>
+      </c>
+      <c r="I54">
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="I55">
-        <v>110</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I56" s="11">
-        <v>475</v>
+        <v>195</v>
+      </c>
+      <c r="H56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56">
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -5794,7 +5804,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -5803,7 +5813,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
@@ -5818,191 +5828,187 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="I58" s="11">
-        <v>360</v>
+        <v>258</v>
+      </c>
+      <c r="H58" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I59" s="3">
-        <v>735</v>
+        <v>258</v>
+      </c>
+      <c r="H59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H61" t="s">
-        <v>379</v>
-      </c>
-      <c r="I61">
-        <v>366</v>
+        <v>258</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
-      </c>
-      <c r="I62">
-        <v>990</v>
+        <v>258</v>
+      </c>
+      <c r="I62" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>492</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I63" s="11">
-        <v>390</v>
+        <v>258</v>
+      </c>
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>383</v>
-      </c>
-      <c r="I64">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="I64" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -6010,7 +6016,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -6019,7 +6025,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
@@ -6034,234 +6040,242 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
       <c r="D66" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="I66" s="11">
-        <v>870</v>
+        <v>258</v>
+      </c>
+      <c r="H66" t="s">
+        <v>258</v>
+      </c>
+      <c r="I66" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
       <c r="D67" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="H67" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="I67" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
       <c r="D68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="H68" t="s">
-        <v>332</v>
-      </c>
-      <c r="I68">
-        <v>76</v>
+        <v>258</v>
+      </c>
+      <c r="I68" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
       <c r="D69" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H69" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C70" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>481</v>
-      </c>
-      <c r="I70" s="3">
-        <v>792</v>
+        <v>258</v>
+      </c>
+      <c r="I70" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>479</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>480</v>
-      </c>
-      <c r="I71" s="3">
-        <v>960</v>
+        <v>258</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="10">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>474</v>
+        <v>258</v>
       </c>
       <c r="H72" t="s">
         <v>258</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="H73" t="s">
-        <v>388</v>
-      </c>
-      <c r="I73">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="I73" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" t="s">
+        <v>258</v>
+      </c>
+      <c r="I74" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6270,7 +6284,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -6279,7 +6293,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
@@ -6294,548 +6308,540 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>185</v>
+        <v>526</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I76" s="3">
-        <v>890</v>
+        <v>258</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I77" s="3">
-        <v>735</v>
+        <v>258</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1006</v>
+        <v>258</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I79" s="3">
-        <v>640</v>
+        <v>258</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I80" s="3">
-        <v>355</v>
+        <v>258</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3">
-        <v>6</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I81" s="3">
-        <v>390</v>
+        <v>258</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I82" s="3">
-        <v>470</v>
+        <v>346</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" s="3">
         <v>337</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H84" t="s">
-        <v>310</v>
-      </c>
-      <c r="I84">
-        <v>75</v>
+        <v>196</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H85" t="s">
-        <v>309</v>
-      </c>
-      <c r="I85">
-        <v>850</v>
+        <v>198</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I85" s="3">
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>203</v>
+        <v>377</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
-      </c>
-      <c r="I86">
-        <v>300</v>
+        <v>376</v>
+      </c>
+      <c r="I86" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="I87">
-        <v>900</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I88">
-        <v>825</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
-      </c>
-      <c r="I89" t="s">
-        <v>258</v>
+        <v>320</v>
+      </c>
+      <c r="I89">
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
-      </c>
-      <c r="I90" t="s">
-        <v>258</v>
+        <v>319</v>
+      </c>
+      <c r="I90">
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
+      </c>
+      <c r="I91">
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>258</v>
+        <v>359</v>
+      </c>
+      <c r="I92">
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="G93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>258</v>
+        <v>193</v>
+      </c>
+      <c r="H93" t="s">
+        <v>364</v>
+      </c>
+      <c r="I93" s="3">
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>258</v>
+        <v>382</v>
+      </c>
+      <c r="H94" t="s">
+        <v>381</v>
+      </c>
+      <c r="I94">
+        <v>990</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>258</v>
+        <v>317</v>
+      </c>
+      <c r="I95" s="3">
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -6848,225 +6854,227 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>258</v>
+        <v>316</v>
+      </c>
+      <c r="I96" s="3">
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>258</v>
+        <v>511</v>
+      </c>
+      <c r="I97" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2</v>
+      </c>
       <c r="E98" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>258</v>
+        <v>347</v>
+      </c>
+      <c r="I98" s="3">
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F99" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G99" s="3" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I99" s="3">
-        <v>388</v>
+        <v>258</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="I100" s="3">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="I101" s="3">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="I102" s="3">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I103" s="3">
-        <v>853</v>
+        <v>315</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I104" s="3">
-        <v>850</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -7074,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
@@ -7087,75 +7095,75 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>389</v>
+        <v>314</v>
+      </c>
+      <c r="I105" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="3">
-        <v>350</v>
+        <v>258</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I107" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -7164,11 +7172,11 @@
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>258</v>
@@ -7177,25 +7185,23 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="3">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>185</v>
+        <v>492</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>258</v>
@@ -7209,7 +7215,7 @@
         <v>42</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -7222,7 +7228,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>258</v>
@@ -7236,7 +7242,7 @@
         <v>42</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -7249,7 +7255,7 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>258</v>
@@ -7263,7 +7269,7 @@
         <v>42</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -7276,7 +7282,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>258</v>
@@ -7290,7 +7296,7 @@
         <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -7303,7 +7309,7 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>258</v>
@@ -7317,7 +7323,7 @@
         <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -7330,40 +7336,94 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="H116" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>144</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>144</v>
       </c>
-      <c r="D115">
-        <f>COUNT(C$2:C$106)</f>
-        <v>76</v>
-      </c>
-      <c r="E115">
-        <f>COUNT(D$2:D$106)</f>
-        <v>101</v>
+      <c r="D117">
+        <f>COUNT(C$2:C$108)</f>
+        <v>77</v>
+      </c>
+      <c r="E117">
+        <f>COUNT(D$2:D$108)</f>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D114">
+  <conditionalFormatting sqref="C1:D116">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:E1048576">
+  <conditionalFormatting sqref="D117:E1048576">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(D115))=0</formula>
+      <formula>LEN(TRIM(D117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8723,7 +8783,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
@@ -8834,7 +8894,7 @@
       </c>
       <c r="E13">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>250</v>
@@ -8846,11 +8906,11 @@
       </c>
       <c r="E14">
         <f>SUM(Table3[Count])</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <f>E14-3</f>
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">

--- a/Dev Note.xlsx
+++ b/Dev Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Desktop\Games\Support for InfamousSabre's Pickups - 0.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Documents\GitHub\support-pickups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288E106-9DCB-4446-9956-675B33562A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A2A3A-2996-47AC-A19A-E6DF04751F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="DLCs" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="527">
   <si>
     <t>AMMO_PISTOL</t>
   </si>
@@ -1636,6 +1636,18 @@
   </si>
   <si>
     <t>This package receives future updates</t>
+  </si>
+  <si>
+    <t>El Strickler</t>
+  </si>
+  <si>
+    <t>mp2024_02_g9ec</t>
+  </si>
+  <si>
+    <t>The Shocker</t>
+  </si>
+  <si>
+    <t>mp2024_01</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1721,8 +1733,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2235,10 +2248,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I114" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:I114" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
-    <sortCondition ref="E1:E114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBF0C0E5-5721-41F1-86B7-2E0C301D8258}" name="Table2" displayName="Table2" ref="A1:I116" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:I116" xr:uid="{C68EBC3C-23F3-46FE-ABC7-3AB4FF29C305}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{64DB3FD4-1DD7-4D21-BE5D-BCBEC25E4D4D}" name="Type" dataDxfId="14"/>
@@ -2292,9 +2305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2332,7 +2345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2438,7 +2451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2580,7 +2593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2590,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF7A180-AB51-48F6-ACE8-D5FBCFE7F65C}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
@@ -4280,12 +4293,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D2457-7DD7-41BC-A5B8-44E625E2EF4A}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4334,25 +4347,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>258</v>
+        <v>195</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="I2" s="10">
+        <v>840</v>
       </c>
       <c r="K2" t="s">
         <v>476</v>
@@ -4360,27 +4373,29 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>499</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="I3" s="11">
-        <v>400</v>
+        <v>194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3">
+        <v>722</v>
       </c>
       <c r="K3" t="s">
         <v>477</v>
@@ -4391,22 +4406,26 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>516</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>515</v>
+        <v>351</v>
       </c>
       <c r="I4" s="3">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="K4" t="s">
         <v>300</v>
@@ -4414,27 +4433,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>474</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>258</v>
+        <v>357</v>
+      </c>
+      <c r="I5" s="3">
+        <v>925</v>
       </c>
       <c r="K5" t="s">
         <v>520</v>
@@ -4442,274 +4463,274 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>517</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3">
-        <v>450</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>258</v>
+        <v>307</v>
+      </c>
+      <c r="I8">
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>258</v>
+        <v>370</v>
+      </c>
+      <c r="I9" s="3">
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>258</v>
+        <v>331</v>
+      </c>
+      <c r="I11" s="3">
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12">
-        <v>76</v>
+        <v>481</v>
+      </c>
+      <c r="I12" s="10">
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13" s="10">
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="10">
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" t="s">
-        <v>258</v>
+        <v>195</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" s="10">
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4718,98 +4739,94 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>369</v>
+        <v>194</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>347</v>
+        <v>194</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="I17" s="11">
-        <v>320</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" t="s">
-        <v>348</v>
-      </c>
-      <c r="I19">
-        <v>722</v>
+        <v>190</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="10">
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -4817,7 +4834,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -4826,179 +4843,173 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" t="s">
-        <v>350</v>
+        <v>384</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" s="10">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="11">
-        <v>930</v>
+        <v>190</v>
+      </c>
+      <c r="H21" t="s">
+        <v>349</v>
+      </c>
+      <c r="I21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I22">
-        <v>430</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>258</v>
+        <v>191</v>
+      </c>
+      <c r="H23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>258</v>
+        <v>191</v>
+      </c>
+      <c r="H24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="I25" s="11">
-        <v>925</v>
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>492</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="I26">
-        <v>850</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -5006,24 +5017,26 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I27">
-        <v>230</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -5031,7 +5044,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -5040,17 +5053,17 @@
         <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="I28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -5058,80 +5071,74 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
-      </c>
-      <c r="I29" t="s">
-        <v>385</v>
+        <v>367</v>
+      </c>
+      <c r="I29">
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I30" s="11">
-        <v>337</v>
+        <v>190</v>
+      </c>
+      <c r="H30" t="s">
+        <v>344</v>
+      </c>
+      <c r="I30">
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="I31">
-        <v>762</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -5139,78 +5146,78 @@
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" t="s">
-        <v>258</v>
+        <v>372</v>
+      </c>
+      <c r="I32">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
       <c r="D33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" t="s">
-        <v>258</v>
+        <v>383</v>
+      </c>
+      <c r="I33">
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>258</v>
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I34" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -5218,284 +5225,280 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="H35" t="s">
-        <v>496</v>
-      </c>
-      <c r="I35">
-        <v>351</v>
+        <v>258</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
       <c r="D36" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H36" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" s="10">
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
       <c r="D37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I37" t="s">
-        <v>258</v>
+        <v>188</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I37" s="10">
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>258</v>
+        <v>188</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="I38" s="10">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="I39" s="11">
-        <v>715</v>
+        <v>192</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="10">
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40">
-        <v>1006</v>
+        <v>5</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41">
-        <v>381</v>
+        <v>258</v>
+      </c>
+      <c r="I41" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>17</v>
+        <v>516</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>195</v>
+        <v>517</v>
       </c>
       <c r="H42" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="I42">
-        <v>875</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H43" t="s">
-        <v>364</v>
-      </c>
-      <c r="I43" s="11">
-        <v>879</v>
+        <v>345</v>
+      </c>
+      <c r="I43">
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I44" s="11">
-        <v>390</v>
+        <v>222</v>
+      </c>
+      <c r="H44" t="s">
+        <v>352</v>
+      </c>
+      <c r="I44">
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G45" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s">
         <v>258</v>
@@ -5506,287 +5509,297 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>8</v>
+        <v>492</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>224</v>
+        <v>497</v>
       </c>
       <c r="H46" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
       <c r="D47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I47">
-        <v>351</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="G48" s="3" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="H48" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I48">
-        <v>450</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
       <c r="D49" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="I50" s="11">
-        <v>970</v>
+        <v>201</v>
+      </c>
+      <c r="H50" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
       <c r="D51" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="I51">
-        <v>375</v>
+        <v>850</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
       <c r="D52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>369</v>
+        <v>203</v>
+      </c>
+      <c r="H52" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52">
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="I53">
-        <v>320</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
-      </c>
-      <c r="I54" t="s">
-        <v>258</v>
+        <v>388</v>
+      </c>
+      <c r="I54">
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="I55">
-        <v>110</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I56" s="11">
-        <v>475</v>
+        <v>195</v>
+      </c>
+      <c r="H56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56">
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -5794,7 +5807,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -5803,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
@@ -5818,191 +5831,187 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="I58" s="11">
-        <v>360</v>
+        <v>258</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I59" s="3">
-        <v>735</v>
+        <v>258</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H61" t="s">
-        <v>379</v>
-      </c>
-      <c r="I61">
-        <v>366</v>
+        <v>258</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
-      </c>
-      <c r="I62">
-        <v>990</v>
+        <v>258</v>
+      </c>
+      <c r="I62" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>492</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I63" s="11">
-        <v>390</v>
+        <v>258</v>
+      </c>
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>383</v>
-      </c>
-      <c r="I64">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="I64" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -6010,7 +6019,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -6019,7 +6028,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
@@ -6034,234 +6043,242 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
       <c r="D66" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="I66" s="11">
-        <v>870</v>
+        <v>258</v>
+      </c>
+      <c r="H66" t="s">
+        <v>258</v>
+      </c>
+      <c r="I66" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
       <c r="D67" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="H67" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="I67" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
       <c r="D68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H68" t="s">
-        <v>332</v>
-      </c>
-      <c r="I68">
-        <v>76</v>
+        <v>258</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
       <c r="D69" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H69" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C70" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>481</v>
-      </c>
-      <c r="I70" s="3">
-        <v>792</v>
+        <v>258</v>
+      </c>
+      <c r="I70" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>479</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>480</v>
-      </c>
-      <c r="I71" s="3">
-        <v>960</v>
+        <v>258</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="10">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>474</v>
+        <v>258</v>
       </c>
       <c r="H72" t="s">
         <v>258</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H73" t="s">
-        <v>388</v>
-      </c>
-      <c r="I73">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6270,7 +6287,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -6279,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
@@ -6294,548 +6311,540 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="3">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I76" s="3">
-        <v>890</v>
+        <v>7</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I77" s="3">
-        <v>735</v>
+        <v>258</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1006</v>
+        <v>258</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I79" s="3">
-        <v>640</v>
+        <v>258</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I80" s="3">
-        <v>355</v>
+        <v>258</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3">
-        <v>6</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I81" s="3">
-        <v>390</v>
+        <v>258</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I82" s="3">
-        <v>470</v>
+        <v>346</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" s="3">
         <v>337</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H84" t="s">
-        <v>310</v>
-      </c>
-      <c r="I84">
-        <v>75</v>
+        <v>196</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H85" t="s">
-        <v>309</v>
-      </c>
-      <c r="I85">
-        <v>850</v>
+        <v>198</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I85" s="3">
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H86" t="s">
-        <v>311</v>
-      </c>
-      <c r="I86">
-        <v>300</v>
+        <v>377</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="I87">
-        <v>900</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" t="s">
-        <v>322</v>
-      </c>
-      <c r="I88">
-        <v>825</v>
+        <v>196</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88" s="10">
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H89" t="s">
-        <v>258</v>
-      </c>
-      <c r="I89" t="s">
-        <v>258</v>
+        <v>196</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I89" s="10">
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H90" t="s">
-        <v>258</v>
-      </c>
-      <c r="I90" t="s">
-        <v>258</v>
+        <v>196</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I90" s="10">
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H91" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I91" s="10">
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>258</v>
+        <v>359</v>
+      </c>
+      <c r="I92">
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="G93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>258</v>
+        <v>193</v>
+      </c>
+      <c r="H93" t="s">
+        <v>364</v>
+      </c>
+      <c r="I93" s="3">
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>258</v>
+        <v>382</v>
+      </c>
+      <c r="H94" t="s">
+        <v>381</v>
+      </c>
+      <c r="I94">
+        <v>990</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>258</v>
+        <v>317</v>
+      </c>
+      <c r="I95" s="3">
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -6848,225 +6857,227 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>258</v>
+        <v>316</v>
+      </c>
+      <c r="I96" s="3">
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>258</v>
+        <v>511</v>
+      </c>
+      <c r="I97" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2</v>
+      </c>
       <c r="E98" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>258</v>
+        <v>347</v>
+      </c>
+      <c r="I98" s="3">
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F99" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G99" s="3" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I99" s="3">
-        <v>388</v>
+        <v>258</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="I100" s="3">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="I101" s="3">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="I102" s="3">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I103" s="3">
-        <v>853</v>
+        <v>315</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I104" s="3">
-        <v>850</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -7074,7 +7085,7 @@
         <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
@@ -7087,75 +7098,75 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>389</v>
+        <v>314</v>
+      </c>
+      <c r="I105" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="3">
-        <v>350</v>
+        <v>258</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I107" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -7164,11 +7175,11 @@
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>258</v>
@@ -7177,25 +7188,23 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="3">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>185</v>
+        <v>492</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>258</v>
@@ -7209,7 +7218,7 @@
         <v>42</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>258</v>
@@ -7236,7 +7245,7 @@
         <v>42</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -7249,7 +7258,7 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>258</v>
@@ -7263,7 +7272,7 @@
         <v>42</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -7276,7 +7285,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>258</v>
@@ -7290,7 +7299,7 @@
         <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -7303,7 +7312,7 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>258</v>
@@ -7317,7 +7326,7 @@
         <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -7330,40 +7339,94 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="H116" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>144</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>144</v>
       </c>
-      <c r="D115">
-        <f>COUNT(C$2:C$106)</f>
-        <v>76</v>
-      </c>
-      <c r="E115">
-        <f>COUNT(D$2:D$106)</f>
-        <v>101</v>
+      <c r="D117">
+        <f>COUNT(C$2:C$108)</f>
+        <v>77</v>
+      </c>
+      <c r="E117">
+        <f>COUNT(D$2:D$108)</f>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D114">
+  <conditionalFormatting sqref="C1:D116">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:E1048576">
+  <conditionalFormatting sqref="D117:E1048576">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(D115))=0</formula>
+      <formula>LEN(TRIM(D117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8723,7 +8786,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
@@ -8834,7 +8897,7 @@
       </c>
       <c r="E13">
         <f>COUNTIF(Table2[Type],Table3[[#This Row],[Type]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>250</v>
@@ -8846,11 +8909,11 @@
       </c>
       <c r="E14">
         <f>SUM(Table3[Count])</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <f>E14-3</f>
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">

--- a/Dev Note.xlsx
+++ b/Dev Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votri\Documents\GitHub\support-pickups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A2A3A-2996-47AC-A19A-E6DF04751F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8B4C8-D73B-424D-BA54-112F05F4EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{73EA9D4B-C824-437F-B99D-4F1AD2BA49BD}"/>
   </bookViews>
@@ -1714,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1733,9 +1733,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4296,7 +4293,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
@@ -4361,10 +4358,10 @@
       <c r="G2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s">
         <v>515</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2">
         <v>840</v>
       </c>
       <c r="K2" t="s">
@@ -4640,7 +4637,7 @@
       <c r="H12" t="s">
         <v>481</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12">
         <v>792</v>
       </c>
     </row>
@@ -4667,7 +4664,7 @@
       <c r="H13" t="s">
         <v>480</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13">
         <v>960</v>
       </c>
     </row>
@@ -4691,10 +4688,10 @@
       <c r="G14" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14">
         <v>890</v>
       </c>
     </row>
@@ -4718,10 +4715,10 @@
       <c r="G15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" t="s">
         <v>306</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15">
         <v>735</v>
       </c>
     </row>
@@ -4745,10 +4742,10 @@
       <c r="G16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" t="s">
         <v>307</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16">
         <v>1006</v>
       </c>
     </row>
@@ -4756,24 +4753,24 @@
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" t="s">
         <v>370</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <v>970</v>
       </c>
     </row>
@@ -4795,10 +4792,10 @@
       <c r="G18" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4822,10 +4819,10 @@
       <c r="G19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" t="s">
         <v>344</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19">
         <v>450</v>
       </c>
     </row>
@@ -4849,10 +4846,10 @@
       <c r="G20" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" t="s">
         <v>343</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20">
         <v>300</v>
       </c>
     </row>
@@ -5265,10 +5262,10 @@
       <c r="G36" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" t="s">
         <v>304</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36">
         <v>640</v>
       </c>
     </row>
@@ -5292,10 +5289,10 @@
       <c r="G37" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" t="s">
         <v>338</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37">
         <v>355</v>
       </c>
     </row>
@@ -5319,10 +5316,10 @@
       <c r="G38" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" t="s">
         <v>361</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38">
         <v>390</v>
       </c>
     </row>
@@ -5346,10 +5343,10 @@
       <c r="G39" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39">
         <v>470</v>
       </c>
     </row>
@@ -5373,10 +5370,10 @@
       <c r="G40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" t="s">
         <v>337</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5606,10 +5603,10 @@
       <c r="G49" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="10" t="s">
+      <c r="H49" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5847,10 +5844,10 @@
       <c r="G58" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I58" s="10" t="s">
+      <c r="H58" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5874,10 +5871,10 @@
       <c r="G59" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I59" s="10" t="s">
+      <c r="H59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6115,10 +6112,10 @@
       <c r="G68" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I68" s="10" t="s">
+      <c r="H68" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6248,10 +6245,10 @@
       <c r="G73" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" s="10" t="s">
+      <c r="H73" t="s">
+        <v>258</v>
+      </c>
+      <c r="I73" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6275,10 +6272,10 @@
       <c r="G74" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="10" t="s">
+      <c r="H74" t="s">
+        <v>258</v>
+      </c>
+      <c r="I74" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6313,21 +6310,21 @@
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="3">
         <v>7</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H76" s="11" t="s">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>258</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -6587,10 +6584,10 @@
       <c r="G86" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" t="s">
         <v>376</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6641,10 +6638,10 @@
       <c r="G88" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" t="s">
         <v>321</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88">
         <v>388</v>
       </c>
     </row>
@@ -6668,10 +6665,10 @@
       <c r="G89" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" t="s">
         <v>320</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89">
         <v>404</v>
       </c>
     </row>
@@ -6695,10 +6692,10 @@
       <c r="G90" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" t="s">
         <v>319</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90">
         <v>378</v>
       </c>
     </row>
@@ -6722,10 +6719,10 @@
       <c r="G91" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" t="s">
         <v>318</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91">
         <v>403</v>
       </c>
     </row>
